--- a/talabalar.xlsx
+++ b/talabalar.xlsx
@@ -536,7 +536,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Koreya xalqaro universiteti talabalari kontingentining 2024-03-13 holati haqida umumiy ma'lumot (Davlat granti/To'lov-kontrakt)</t>
+          <t>Koreya xalqaro universiteti talabalari kontingentining 2024-03-15 holati haqida umumiy ma'lumot (Davlat granti/To'lov-kontrakt)</t>
         </is>
       </c>
     </row>
@@ -632,12 +632,12 @@
       <c r="D4" s="5" t="n"/>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>Davlat granti</t>
+          <t>Erkak</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>To'lov-kontrakt</t>
+          <t>Ayol</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -647,12 +647,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>Davlat granti</t>
+          <t>Erkak</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>To'lov-kontrakt</t>
+          <t>Ayol</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -662,12 +662,12 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>Davlat granti</t>
+          <t>Erkak</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>To'lov-kontrakt</t>
+          <t>Ayol</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -677,12 +677,12 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>Davlat granti</t>
+          <t>Erkak</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>To'lov-kontrakt</t>
+          <t>Ayol</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
@@ -692,12 +692,12 @@
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>Davlat granti</t>
+          <t>Erkak</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>To'lov-kontrakt</t>
+          <t>Ayol</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
@@ -707,12 +707,12 @@
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>Davlat granti</t>
+          <t>Erkak</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>To'lov-kontrakt</t>
+          <t>Ayol</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
@@ -722,12 +722,12 @@
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>Davlat granti</t>
+          <t>Erkak</t>
         </is>
       </c>
       <c r="X4" s="2" t="inlineStr">
         <is>
-          <t>To'lov-kontrakt</t>
+          <t>Ayol</t>
         </is>
       </c>
       <c r="Y4" s="2" t="inlineStr">
@@ -737,12 +737,12 @@
       </c>
       <c r="Z4" s="2" t="inlineStr">
         <is>
-          <t>Davlat granti</t>
+          <t>Erkak</t>
         </is>
       </c>
       <c r="AA4" s="2" t="inlineStr">
         <is>
-          <t>To'lov-kontrakt</t>
+          <t>Ayol</t>
         </is>
       </c>
       <c r="AB4" s="2" t="inlineStr">
@@ -752,12 +752,12 @@
       </c>
       <c r="AC4" s="2" t="inlineStr">
         <is>
-          <t>Davlat granti</t>
+          <t>Erkak</t>
         </is>
       </c>
       <c r="AD4" s="2" t="inlineStr">
         <is>
-          <t>To'lov-kontrakt</t>
+          <t>Ayol</t>
         </is>
       </c>
     </row>
@@ -779,37 +779,37 @@
         <v>176</v>
       </c>
       <c r="E5" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F5" t="n">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="G5" t="n">
         <v>126</v>
       </c>
       <c r="H5" t="n">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="I5" t="n">
-        <v>113</v>
+        <v>28</v>
       </c>
       <c r="J5" t="n">
         <v>20</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="L5" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
         <v>30</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="O5" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -857,37 +857,37 @@
         <v>54</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F6" t="n">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G6" t="n">
         <v>25</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I6" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="J6" t="n">
         <v>13</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L6" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
         <v>16</v>
       </c>
       <c r="N6" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="O6" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -944,28 +944,28 @@
         <v>68</v>
       </c>
       <c r="E7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G7" t="n">
         <v>58</v>
       </c>
       <c r="H7" t="n">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="I7" t="n">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
         <v>10</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L7" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>38</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F8" t="n">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="G8" t="n">
         <v>36</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="I8" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="J8" t="n">
         <v>2</v>
@@ -1118,19 +1118,19 @@
         <v>66</v>
       </c>
       <c r="E9" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="F9" t="n">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="G9" t="n">
         <v>62</v>
       </c>
       <c r="H9" t="n">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="I9" t="n">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="J9" t="n">
         <v>4</v>
@@ -1205,28 +1205,28 @@
         <v>23</v>
       </c>
       <c r="E10" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F10" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G10" t="n">
         <v>21</v>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="J10" t="n">
         <v>2</v>
       </c>
       <c r="K10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1292,37 +1292,37 @@
         <v>251</v>
       </c>
       <c r="E11" t="n">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="F11" t="n">
-        <v>219</v>
+        <v>176</v>
       </c>
       <c r="G11" t="n">
         <v>144</v>
       </c>
       <c r="H11" t="n">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="I11" t="n">
-        <v>124</v>
+        <v>27</v>
       </c>
       <c r="J11" t="n">
         <v>48</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="L11" t="n">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="M11" t="n">
         <v>59</v>
       </c>
       <c r="N11" t="n">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="O11" t="n">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1379,37 +1379,37 @@
         <v>44</v>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F12" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G12" t="n">
         <v>22</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I12" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
         <v>11</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L12" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="M12" t="n">
         <v>11</v>
       </c>
       <c r="N12" t="n">
+        <v>8</v>
+      </c>
+      <c r="O12" t="n">
         <v>3</v>
-      </c>
-      <c r="O12" t="n">
-        <v>8</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1466,19 +1466,19 @@
         <v>80</v>
       </c>
       <c r="E13" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="F13" t="n">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="G13" t="n">
         <v>61</v>
       </c>
       <c r="H13" t="n">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="I13" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1493,10 +1493,10 @@
         <v>19</v>
       </c>
       <c r="N13" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="O13" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1553,37 +1553,37 @@
         <v>147</v>
       </c>
       <c r="E14" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F14" t="n">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="G14" t="n">
         <v>39</v>
       </c>
       <c r="H14" t="n">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I14" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
         <v>32</v>
       </c>
       <c r="K14" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="L14" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="M14" t="n">
         <v>76</v>
       </c>
       <c r="N14" t="n">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="O14" t="n">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1640,10 +1640,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F15" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1667,10 +1667,10 @@
         <v>18</v>
       </c>
       <c r="N15" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="O15" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1727,10 +1727,10 @@
         <v>83</v>
       </c>
       <c r="E16" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F16" t="n">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1745,19 +1745,19 @@
         <v>29</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L16" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
         <v>54</v>
       </c>
       <c r="N16" t="n">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="O16" t="n">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1814,19 +1814,19 @@
         <v>26</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F17" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G17" t="n">
         <v>26</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="I17" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1901,10 +1901,10 @@
         <v>34</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F18" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1919,10 +1919,10 @@
         <v>34</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="L18" t="n">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -1988,10 +1988,10 @@
         <v>4</v>
       </c>
       <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
         <v>3</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
       </c>
       <c r="G19" t="n">
         <v>4</v>
@@ -2075,37 +2075,37 @@
         <v>422</v>
       </c>
       <c r="E20" t="n">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="F20" t="n">
-        <v>397</v>
+        <v>332</v>
       </c>
       <c r="G20" t="n">
         <v>130</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="I20" t="n">
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="J20" t="n">
         <v>101</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="L20" t="n">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="M20" t="n">
         <v>191</v>
       </c>
       <c r="N20" t="n">
-        <v>25</v>
+        <v>161</v>
       </c>
       <c r="O20" t="n">
-        <v>166</v>
+        <v>30</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -2162,28 +2162,28 @@
         <v>17</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G21" t="n">
         <v>11</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I21" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
         <v>6</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L21" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -2249,37 +2249,37 @@
         <v>136</v>
       </c>
       <c r="E22" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F22" t="n">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="G22" t="n">
         <v>12</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I22" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>98</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="L22" t="n">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="M22" t="n">
         <v>26</v>
       </c>
       <c r="N22" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="O22" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -2336,10 +2336,10 @@
         <v>24</v>
       </c>
       <c r="E23" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F23" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2354,19 +2354,19 @@
         <v>5</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M23" t="n">
         <v>19</v>
       </c>
       <c r="N23" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="O23" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -2423,19 +2423,19 @@
         <v>13</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F24" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G24" t="n">
         <v>13</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I24" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2510,19 +2510,19 @@
         <v>8</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G25" t="n">
         <v>8</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I25" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2597,19 +2597,19 @@
         <v>11</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F26" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G26" t="n">
         <v>11</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I26" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2693,10 +2693,10 @@
         <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2763,37 +2763,37 @@
         <v>1744</v>
       </c>
       <c r="E28" t="n">
-        <v>240</v>
+        <v>350</v>
       </c>
       <c r="F28" t="n">
-        <v>1504</v>
+        <v>1498</v>
       </c>
       <c r="G28" t="n">
         <v>810</v>
       </c>
       <c r="H28" t="n">
-        <v>121</v>
+        <v>641</v>
       </c>
       <c r="I28" t="n">
-        <v>689</v>
+        <v>169</v>
       </c>
       <c r="J28" t="n">
         <v>415</v>
       </c>
       <c r="K28" t="n">
-        <v>12</v>
+        <v>309</v>
       </c>
       <c r="L28" t="n">
-        <v>403</v>
+        <v>106</v>
       </c>
       <c r="M28" t="n">
         <v>519</v>
       </c>
       <c r="N28" t="n">
-        <v>107</v>
+        <v>444</v>
       </c>
       <c r="O28" t="n">
-        <v>412</v>
+        <v>75</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -2850,28 +2850,28 @@
         <v>93</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F29" t="n">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="G29" t="n">
         <v>2</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J29" t="n">
         <v>91</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="L29" t="n">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -2928,19 +2928,19 @@
         <v>3</v>
       </c>
       <c r="E30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G30" t="n">
         <v>3</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3015,10 +3015,10 @@
         <v>419</v>
       </c>
       <c r="E31" t="n">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="F31" t="n">
-        <v>417</v>
+        <v>277</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3033,19 +3033,19 @@
         <v>131</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="L31" t="n">
-        <v>131</v>
+        <v>60</v>
       </c>
       <c r="M31" t="n">
         <v>208</v>
       </c>
       <c r="N31" t="n">
-        <v>2</v>
+        <v>147</v>
       </c>
       <c r="O31" t="n">
-        <v>206</v>
+        <v>61</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -3060,10 +3060,10 @@
         <v>80</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="U31" t="n">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3102,10 +3102,10 @@
         <v>111</v>
       </c>
       <c r="E32" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F32" t="n">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3120,19 +3120,19 @@
         <v>47</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="L32" t="n">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="M32" t="n">
         <v>41</v>
       </c>
       <c r="N32" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="O32" t="n">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -3147,10 +3147,10 @@
         <v>23</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="U32" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3189,19 +3189,19 @@
         <v>55</v>
       </c>
       <c r="E33" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F33" t="n">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G33" t="n">
         <v>55</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="I33" t="n">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3276,19 +3276,19 @@
         <v>54</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F34" t="n">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="G34" t="n">
         <v>54</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="I34" t="n">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3363,28 +3363,28 @@
         <v>87</v>
       </c>
       <c r="E35" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F35" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G35" t="n">
         <v>51</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="I35" t="n">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="J35" t="n">
         <v>36</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="L35" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -3450,37 +3450,37 @@
         <v>174</v>
       </c>
       <c r="E36" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="F36" t="n">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="G36" t="n">
         <v>25</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="I36" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="J36" t="n">
         <v>116</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="L36" t="n">
-        <v>116</v>
+        <v>21</v>
       </c>
       <c r="M36" t="n">
         <v>19</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="O36" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -3495,10 +3495,10 @@
         <v>14</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="U36" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3537,10 +3537,10 @@
         <v>29</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -3582,10 +3582,10 @@
         <v>28</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="U37" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3624,28 +3624,28 @@
         <v>44</v>
       </c>
       <c r="E38" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="F38" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="G38" t="n">
         <v>16</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I38" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J38" t="n">
         <v>28</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="L38" t="n">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -3703,37 +3703,37 @@
         <v>1069</v>
       </c>
       <c r="E39" t="n">
-        <v>22</v>
+        <v>252</v>
       </c>
       <c r="F39" t="n">
-        <v>1047</v>
+        <v>834</v>
       </c>
       <c r="G39" t="n">
         <v>207</v>
       </c>
       <c r="H39" t="n">
-        <v>14</v>
+        <v>160</v>
       </c>
       <c r="I39" t="n">
-        <v>193</v>
+        <v>47</v>
       </c>
       <c r="J39" t="n">
         <v>449</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>338</v>
       </c>
       <c r="L39" t="n">
-        <v>449</v>
+        <v>111</v>
       </c>
       <c r="M39" t="n">
         <v>268</v>
       </c>
       <c r="N39" t="n">
-        <v>8</v>
+        <v>201</v>
       </c>
       <c r="O39" t="n">
-        <v>260</v>
+        <v>67</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -3748,10 +3748,10 @@
         <v>145</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="U39" t="n">
-        <v>145</v>
+        <v>27</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3790,28 +3790,28 @@
         <v>152</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="F40" t="n">
-        <v>152</v>
+        <v>99</v>
       </c>
       <c r="G40" t="n">
         <v>99</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="I40" t="n">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="J40" t="n">
         <v>53</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="L40" t="n">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -3868,28 +3868,28 @@
         <v>55</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F41" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G41" t="n">
         <v>11</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I41" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>44</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="L41" t="n">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -3955,19 +3955,19 @@
         <v>87</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F42" t="n">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="G42" t="n">
         <v>87</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="I42" t="n">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -4034,28 +4034,28 @@
         <v>294</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="F43" t="n">
-        <v>294</v>
+        <v>219</v>
       </c>
       <c r="G43" t="n">
         <v>197</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="I43" t="n">
-        <v>197</v>
+        <v>56</v>
       </c>
       <c r="J43" t="n">
         <v>97</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="L43" t="n">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -4121,10 +4121,10 @@
         <v>34</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F44" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4139,10 +4139,10 @@
         <v>34</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="L44" t="n">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -4199,10 +4199,10 @@
         <v>19</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4217,10 +4217,10 @@
         <v>19</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L45" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -4256,15 +4256,6 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4313,10 +4304,10 @@
         <v>19</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="O46" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -4343,15 +4334,6 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4373,10 +4355,10 @@
         <v>4</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -4391,10 +4373,10 @@
         <v>4</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L47" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M47" t="n">
         <v>0</v>
@@ -4430,15 +4412,6 @@
         <v>0</v>
       </c>
       <c r="X47" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y47" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4460,10 +4433,10 @@
         <v>4</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -4478,10 +4451,10 @@
         <v>4</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L48" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M48" t="n">
         <v>0</v>
@@ -4517,15 +4490,6 @@
         <v>0</v>
       </c>
       <c r="X48" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y48" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4565,10 +4529,10 @@
         <v>14</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L49" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
@@ -4604,15 +4568,6 @@
         <v>0</v>
       </c>
       <c r="X49" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y49" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4652,10 +4607,10 @@
         <v>2</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
@@ -4691,15 +4646,6 @@
         <v>0</v>
       </c>
       <c r="X50" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y50" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4739,10 +4685,10 @@
         <v>4</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L51" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M51" t="n">
         <v>0</v>
@@ -4778,15 +4724,6 @@
         <v>0</v>
       </c>
       <c r="X51" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y51" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4795,78 +4732,6 @@
         <is>
           <t>2-mut jami</t>
         </is>
-      </c>
-      <c r="D52" t="n">
-        <v>100</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" t="n">
-        <v>100</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="n">
-        <v>81</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0</v>
-      </c>
-      <c r="L52" t="n">
-        <v>81</v>
-      </c>
-      <c r="M52" t="n">
-        <v>19</v>
-      </c>
-      <c r="N52" t="n">
-        <v>0</v>
-      </c>
-      <c r="O52" t="n">
-        <v>19</v>
-      </c>
-      <c r="P52" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>0</v>
-      </c>
-      <c r="R52" t="n">
-        <v>0</v>
-      </c>
-      <c r="S52" t="n">
-        <v>0</v>
-      </c>
-      <c r="T52" t="n">
-        <v>0</v>
-      </c>
-      <c r="U52" t="n">
-        <v>0</v>
-      </c>
-      <c r="V52" t="n">
-        <v>0</v>
-      </c>
-      <c r="W52" t="n">
-        <v>0</v>
-      </c>
-      <c r="X52" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y52" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA52" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -4887,19 +4752,19 @@
         <v>13</v>
       </c>
       <c r="E53" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G53" t="n">
         <v>13</v>
       </c>
       <c r="H53" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J53" t="n">
         <v>0</v>
@@ -4965,19 +4830,19 @@
         <v>13</v>
       </c>
       <c r="E54" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G54" t="n">
         <v>13</v>
       </c>
       <c r="H54" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J54" t="n">
         <v>0</v>
@@ -5052,28 +4917,28 @@
         <v>6</v>
       </c>
       <c r="E55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G55" t="n">
         <v>5</v>
       </c>
       <c r="H55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J55" t="n">
         <v>1</v>
       </c>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M55" t="n">
         <v>0</v>
@@ -5139,10 +5004,10 @@
         <v>2</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -5157,10 +5022,10 @@
         <v>2</v>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M56" t="n">
         <v>0</v>
@@ -5244,10 +5109,10 @@
         <v>1</v>
       </c>
       <c r="K57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M57" t="n">
         <v>0</v>
@@ -5305,28 +5170,28 @@
         <v>35</v>
       </c>
       <c r="E58" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F58" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="G58" t="n">
         <v>31</v>
       </c>
       <c r="H58" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="J58" t="n">
         <v>4</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L58" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M58" t="n">
         <v>0</v>
@@ -5393,28 +5258,28 @@
         <v>1219</v>
       </c>
       <c r="H60" t="n">
-        <v>266</v>
+        <v>139</v>
       </c>
       <c r="I60" t="n">
-        <v>2647</v>
+        <v>1080</v>
       </c>
       <c r="J60" t="n">
         <v>1042</v>
       </c>
       <c r="K60" t="n">
-        <v>266</v>
+        <v>12</v>
       </c>
       <c r="L60" t="n">
-        <v>2946</v>
+        <v>1030</v>
       </c>
       <c r="M60" t="n">
         <v>806</v>
       </c>
       <c r="N60" t="n">
-        <v>266</v>
+        <v>115</v>
       </c>
       <c r="O60" t="n">
-        <v>2281</v>
+        <v>691</v>
       </c>
       <c r="P60" t="n">
         <v>0</v>
@@ -5429,10 +5294,10 @@
         <v>145</v>
       </c>
       <c r="T60" t="n">
-        <v>2128</v>
+        <v>0</v>
       </c>
       <c r="U60" t="n">
-        <v>17930</v>
+        <v>145</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
@@ -5463,37 +5328,37 @@
         <v>540</v>
       </c>
       <c r="E62" t="n">
-        <v>437</v>
+        <v>95</v>
       </c>
       <c r="F62" t="n">
-        <v>103</v>
+        <v>445</v>
       </c>
       <c r="G62" t="n">
         <v>233</v>
       </c>
       <c r="H62" t="n">
-        <v>192</v>
+        <v>50</v>
       </c>
       <c r="I62" t="n">
-        <v>41</v>
+        <v>183</v>
       </c>
       <c r="J62" t="n">
         <v>140</v>
       </c>
       <c r="K62" t="n">
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="L62" t="n">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="M62" t="n">
         <v>167</v>
       </c>
       <c r="N62" t="n">
-        <v>149</v>
+        <v>41</v>
       </c>
       <c r="O62" t="n">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="P62" t="n">
         <v>0</v>
@@ -5542,37 +5407,37 @@
         <v>734</v>
       </c>
       <c r="E63" t="n">
-        <v>575</v>
+        <v>121</v>
       </c>
       <c r="F63" t="n">
-        <v>159</v>
+        <v>613</v>
       </c>
       <c r="G63" t="n">
         <v>507</v>
       </c>
       <c r="H63" t="n">
-        <v>403</v>
+        <v>88</v>
       </c>
       <c r="I63" t="n">
-        <v>104</v>
+        <v>419</v>
       </c>
       <c r="J63" t="n">
         <v>111</v>
       </c>
       <c r="K63" t="n">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L63" t="n">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="M63" t="n">
         <v>116</v>
       </c>
       <c r="N63" t="n">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="O63" t="n">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="P63" t="n">
         <v>0</v>
@@ -5700,37 +5565,37 @@
         <v>786</v>
       </c>
       <c r="E65" t="n">
+        <v>41</v>
+      </c>
+      <c r="F65" t="n">
         <v>745</v>
-      </c>
-      <c r="F65" t="n">
-        <v>41</v>
       </c>
       <c r="G65" t="n">
         <v>285</v>
       </c>
       <c r="H65" t="n">
-        <v>274</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>11</v>
+        <v>285</v>
       </c>
       <c r="J65" t="n">
         <v>265</v>
       </c>
       <c r="K65" t="n">
-        <v>254</v>
+        <v>0</v>
       </c>
       <c r="L65" t="n">
-        <v>11</v>
+        <v>265</v>
       </c>
       <c r="M65" t="n">
         <v>236</v>
       </c>
       <c r="N65" t="n">
-        <v>217</v>
+        <v>41</v>
       </c>
       <c r="O65" t="n">
-        <v>19</v>
+        <v>195</v>
       </c>
       <c r="P65" t="n">
         <v>0</v>
@@ -5779,37 +5644,37 @@
         <v>1169</v>
       </c>
       <c r="E66" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="F66" t="n">
-        <v>199</v>
+        <v>1147</v>
       </c>
       <c r="G66" t="n">
         <v>207</v>
       </c>
       <c r="H66" t="n">
-        <v>149</v>
+        <v>14</v>
       </c>
       <c r="I66" t="n">
-        <v>58</v>
+        <v>193</v>
       </c>
       <c r="J66" t="n">
         <v>530</v>
       </c>
       <c r="K66" t="n">
-        <v>481</v>
+        <v>0</v>
       </c>
       <c r="L66" t="n">
-        <v>49</v>
+        <v>530</v>
       </c>
       <c r="M66" t="n">
         <v>287</v>
       </c>
       <c r="N66" t="n">
-        <v>246</v>
+        <v>8</v>
       </c>
       <c r="O66" t="n">
-        <v>41</v>
+        <v>279</v>
       </c>
       <c r="P66" t="n">
         <v>0</v>
@@ -5824,10 +5689,10 @@
         <v>145</v>
       </c>
       <c r="T66" t="n">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="U66" t="n">
-        <v>51</v>
+        <v>145</v>
       </c>
       <c r="V66" t="n">
         <v>0</v>
@@ -5851,44 +5716,44 @@
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>Jami</t>
+          <t>Sirtqi bo'lim</t>
         </is>
       </c>
       <c r="D68" t="n">
         <v>3229</v>
       </c>
       <c r="E68" t="n">
-        <v>2727</v>
+        <v>279</v>
       </c>
       <c r="F68" t="n">
-        <v>502</v>
+        <v>2950</v>
       </c>
       <c r="G68" t="n">
         <v>1232</v>
       </c>
       <c r="H68" t="n">
-        <v>1018</v>
+        <v>152</v>
       </c>
       <c r="I68" t="n">
-        <v>214</v>
+        <v>1080</v>
       </c>
       <c r="J68" t="n">
         <v>1046</v>
       </c>
       <c r="K68" t="n">
-        <v>914</v>
+        <v>12</v>
       </c>
       <c r="L68" t="n">
-        <v>132</v>
+        <v>1034</v>
       </c>
       <c r="M68" t="n">
         <v>806</v>
       </c>
       <c r="N68" t="n">
-        <v>701</v>
+        <v>115</v>
       </c>
       <c r="O68" t="n">
-        <v>105</v>
+        <v>691</v>
       </c>
       <c r="P68" t="n">
         <v>0</v>
@@ -5903,10 +5768,10 @@
         <v>145</v>
       </c>
       <c r="T68" t="n">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="U68" t="n">
-        <v>51</v>
+        <v>145</v>
       </c>
       <c r="V68" t="n">
         <v>0</v>

--- a/talabalar.xlsx
+++ b/talabalar.xlsx
@@ -525,7 +525,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD68"/>
+  <dimension ref="A1:AD67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5249,37 +5249,37 @@
         <v>3212</v>
       </c>
       <c r="E60" t="n">
-        <v>266</v>
+        <v>697</v>
       </c>
       <c r="F60" t="n">
-        <v>2946</v>
+        <v>2963</v>
       </c>
       <c r="G60" t="n">
         <v>1219</v>
       </c>
       <c r="H60" t="n">
-        <v>139</v>
+        <v>944</v>
       </c>
       <c r="I60" t="n">
-        <v>1080</v>
+        <v>275</v>
       </c>
       <c r="J60" t="n">
         <v>1042</v>
       </c>
       <c r="K60" t="n">
-        <v>12</v>
+        <v>789</v>
       </c>
       <c r="L60" t="n">
-        <v>1030</v>
+        <v>253</v>
       </c>
       <c r="M60" t="n">
         <v>806</v>
       </c>
       <c r="N60" t="n">
-        <v>115</v>
+        <v>664</v>
       </c>
       <c r="O60" t="n">
-        <v>691</v>
+        <v>142</v>
       </c>
       <c r="P60" t="n">
         <v>0</v>
@@ -5294,71 +5294,150 @@
         <v>145</v>
       </c>
       <c r="T60" t="n">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="U60" t="n">
+        <v>27</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="n">
+        <v>0</v>
+      </c>
+      <c r="X60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Dasturiy injiniring va raqamli iqtisodiyot</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>540</v>
+      </c>
+      <c r="E61" t="n">
+        <v>84</v>
+      </c>
+      <c r="F61" t="n">
+        <v>532</v>
+      </c>
+      <c r="G61" t="n">
+        <v>233</v>
+      </c>
+      <c r="H61" t="n">
+        <v>188</v>
+      </c>
+      <c r="I61" t="n">
+        <v>45</v>
+      </c>
+      <c r="J61" t="n">
+        <v>140</v>
+      </c>
+      <c r="K61" t="n">
+        <v>123</v>
+      </c>
+      <c r="L61" t="n">
+        <v>17</v>
+      </c>
+      <c r="M61" t="n">
+        <v>167</v>
+      </c>
+      <c r="N61" t="n">
         <v>145</v>
       </c>
-      <c r="V60" t="n">
-        <v>0</v>
-      </c>
-      <c r="W60" t="n">
-        <v>0</v>
-      </c>
-      <c r="X60" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y60" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA60" t="n">
+      <c r="O61" t="n">
+        <v>22</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA61" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>Dasturiy injiniring va raqamli iqtisodiyot</t>
+          <t>Telekommunikatsiya injiniringi va kasb taʼlimi fakulteti</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>540</v>
+        <v>734</v>
       </c>
       <c r="E62" t="n">
-        <v>95</v>
+        <v>183</v>
       </c>
       <c r="F62" t="n">
-        <v>445</v>
+        <v>723</v>
       </c>
       <c r="G62" t="n">
-        <v>233</v>
+        <v>507</v>
       </c>
       <c r="H62" t="n">
-        <v>50</v>
+        <v>385</v>
       </c>
       <c r="I62" t="n">
-        <v>183</v>
+        <v>122</v>
       </c>
       <c r="J62" t="n">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="K62" t="n">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="L62" t="n">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="M62" t="n">
-        <v>167</v>
+        <v>116</v>
       </c>
       <c r="N62" t="n">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="O62" t="n">
-        <v>126</v>
+        <v>20</v>
       </c>
       <c r="P62" t="n">
         <v>0</v>
@@ -5400,44 +5479,44 @@
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>Telekommunikatsiya injiniringi va kasb taʼlimi fakulteti</t>
+          <t>Dasturiy injiniring va raqamli iqtisodiyot fakulteti</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>734</v>
+        <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>613</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>507</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>419</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="K63" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L63" t="n">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="O63" t="n">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="P63" t="n">
         <v>0</v>
@@ -5479,44 +5558,44 @@
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>Dasturiy injiniring va raqamli iqtisodiyot fakulteti</t>
+          <t>Kompyuter injiniringi fakulteti</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>786</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>725</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>285</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J64" t="n">
-        <v>0</v>
+        <v>265</v>
       </c>
       <c r="K64" t="n">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="M64" t="n">
-        <v>0</v>
+        <v>236</v>
       </c>
       <c r="N64" t="n">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="O64" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="P64" t="n">
         <v>0</v>
@@ -5558,44 +5637,44 @@
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>Kompyuter injiniringi fakulteti</t>
+          <t>Sirtqi bo'lim</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>786</v>
+        <v>1169</v>
       </c>
       <c r="E65" t="n">
-        <v>41</v>
+        <v>258</v>
       </c>
       <c r="F65" t="n">
-        <v>745</v>
+        <v>994</v>
       </c>
       <c r="G65" t="n">
-        <v>285</v>
+        <v>207</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="I65" t="n">
-        <v>285</v>
+        <v>47</v>
       </c>
       <c r="J65" t="n">
-        <v>265</v>
+        <v>530</v>
       </c>
       <c r="K65" t="n">
-        <v>0</v>
+        <v>413</v>
       </c>
       <c r="L65" t="n">
-        <v>265</v>
+        <v>117</v>
       </c>
       <c r="M65" t="n">
-        <v>236</v>
+        <v>287</v>
       </c>
       <c r="N65" t="n">
-        <v>41</v>
+        <v>220</v>
       </c>
       <c r="O65" t="n">
-        <v>195</v>
+        <v>67</v>
       </c>
       <c r="P65" t="n">
         <v>0</v>
@@ -5607,13 +5686,13 @@
         <v>0</v>
       </c>
       <c r="S65" t="n">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="T65" t="n">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="U65" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="V65" t="n">
         <v>0</v>
@@ -5634,161 +5713,82 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66">
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Sirtqi bo'lim</t>
-        </is>
-      </c>
-      <c r="D66" t="n">
-        <v>1169</v>
-      </c>
-      <c r="E66" t="n">
-        <v>22</v>
-      </c>
-      <c r="F66" t="n">
-        <v>1147</v>
-      </c>
-      <c r="G66" t="n">
-        <v>207</v>
-      </c>
-      <c r="H66" t="n">
-        <v>14</v>
-      </c>
-      <c r="I66" t="n">
-        <v>193</v>
-      </c>
-      <c r="J66" t="n">
-        <v>530</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0</v>
-      </c>
-      <c r="L66" t="n">
-        <v>530</v>
-      </c>
-      <c r="M66" t="n">
-        <v>287</v>
-      </c>
-      <c r="N66" t="n">
-        <v>8</v>
-      </c>
-      <c r="O66" t="n">
-        <v>279</v>
-      </c>
-      <c r="P66" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>0</v>
-      </c>
-      <c r="R66" t="n">
-        <v>0</v>
-      </c>
-      <c r="S66" t="n">
+    <row r="67">
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Jami</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>3229</v>
+      </c>
+      <c r="E67" t="n">
+        <v>705</v>
+      </c>
+      <c r="F67" t="n">
+        <v>2974</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1232</v>
+      </c>
+      <c r="H67" t="n">
+        <v>950</v>
+      </c>
+      <c r="I67" t="n">
+        <v>282</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1046</v>
+      </c>
+      <c r="K67" t="n">
+        <v>792</v>
+      </c>
+      <c r="L67" t="n">
+        <v>254</v>
+      </c>
+      <c r="M67" t="n">
+        <v>806</v>
+      </c>
+      <c r="N67" t="n">
+        <v>664</v>
+      </c>
+      <c r="O67" t="n">
+        <v>142</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
+      <c r="S67" t="n">
         <v>145</v>
       </c>
-      <c r="T66" t="n">
-        <v>0</v>
-      </c>
-      <c r="U66" t="n">
-        <v>145</v>
-      </c>
-      <c r="V66" t="n">
-        <v>0</v>
-      </c>
-      <c r="W66" t="n">
-        <v>0</v>
-      </c>
-      <c r="X66" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y66" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA66" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Sirtqi bo'lim</t>
-        </is>
-      </c>
-      <c r="D68" t="n">
-        <v>3229</v>
-      </c>
-      <c r="E68" t="n">
-        <v>279</v>
-      </c>
-      <c r="F68" t="n">
-        <v>2950</v>
-      </c>
-      <c r="G68" t="n">
-        <v>1232</v>
-      </c>
-      <c r="H68" t="n">
-        <v>152</v>
-      </c>
-      <c r="I68" t="n">
-        <v>1080</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1046</v>
-      </c>
-      <c r="K68" t="n">
-        <v>12</v>
-      </c>
-      <c r="L68" t="n">
-        <v>1034</v>
-      </c>
-      <c r="M68" t="n">
-        <v>806</v>
-      </c>
-      <c r="N68" t="n">
-        <v>115</v>
-      </c>
-      <c r="O68" t="n">
-        <v>691</v>
-      </c>
-      <c r="P68" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q68" t="n">
-        <v>0</v>
-      </c>
-      <c r="R68" t="n">
-        <v>0</v>
-      </c>
-      <c r="S68" t="n">
-        <v>145</v>
-      </c>
-      <c r="T68" t="n">
-        <v>0</v>
-      </c>
-      <c r="U68" t="n">
-        <v>145</v>
-      </c>
-      <c r="V68" t="n">
-        <v>0</v>
-      </c>
-      <c r="W68" t="n">
-        <v>0</v>
-      </c>
-      <c r="X68" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y68" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA68" t="n">
+      <c r="T67" t="n">
+        <v>118</v>
+      </c>
+      <c r="U67" t="n">
+        <v>27</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="n">
+        <v>0</v>
+      </c>
+      <c r="X67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA67" t="n">
         <v>0</v>
       </c>
     </row>

--- a/talabalar.xlsx
+++ b/talabalar.xlsx
@@ -499,7 +499,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Koreya xalqaro universiteti talabalari kontingentining 2024-03-19 holati haqida umumiy ma'lumot </t>
+          <t xml:space="preserve">Koreya xalqaro universiteti talabalari kontingentining 2024-03-20 holati haqida umumiy ma'lumot </t>
         </is>
       </c>
     </row>

--- a/talabalar.xlsx
+++ b/talabalar.xlsx
@@ -499,7 +499,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Koreya xalqaro universiteti talabalari kontingentining 2024-03-20 holati haqida umumiy ma'lumot </t>
+          <t xml:space="preserve">Sining universitetingiz nomi talabalari kontingentining 2024-03-30 holati haqida umumiy ma'lumot </t>
         </is>
       </c>
     </row>
